--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -399,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -723,7 +723,7 @@
         <v>india</v>
       </c>
       <c r="N6" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="O6" t="str">
         <v>Yes</v>

--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -738,9 +738,65 @@
         <v>Yes</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>3122225001090</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Paul Andrew</v>
+      </c>
+      <c r="C7" t="str">
+        <v>123123123</v>
+      </c>
+      <c r="D7" t="str">
+        <v>B</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2025-04-08</v>
+      </c>
+      <c r="H7" t="str">
+        <v>2025-04-25</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Boom Company</v>
+      </c>
+      <c r="J7" t="str">
+        <v>campus</v>
+      </c>
+      <c r="K7" t="str">
+        <v>10000</v>
+      </c>
+      <c r="L7" t="str">
+        <v>industry</v>
+      </c>
+      <c r="M7" t="str">
+        <v>chennai</v>
+      </c>
+      <c r="N7" t="str">
+        <v>No</v>
+      </c>
+      <c r="O7" t="str">
+        <v>No</v>
+      </c>
+      <c r="P7" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>No</v>
+      </c>
+      <c r="R7" t="str">
+        <v>No</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -443,7 +443,7 @@
         <v>Location</v>
       </c>
       <c r="N1" t="str">
-        <v>Offer Letter Submitted</v>
+        <v>Offer Letter</v>
       </c>
       <c r="O1" t="str">
         <v>Completion Certificate</v>
@@ -723,7 +723,7 @@
         <v>india</v>
       </c>
       <c r="N6" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="O6" t="str">
         <v>Yes</v>

--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intern_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66341110-638B-4BAD-B3E7-2D9EC6ED3A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29DBF18-2D77-4C71-9C99-C12E073AD8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4530" yWindow="5490" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,12 +615,12 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -732,7 +732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -788,7 +788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -844,7 +844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -900,7 +900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -956,7 +956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -970,7 +970,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
@@ -1000,7 +1000,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:R6 A7:M7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:R6 A7:D7 F7:M7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -755,7 +755,7 @@
         <v>yes</v>
       </c>
       <c r="F7" t="str">
-        <v>2</v>
+        <v>2 months</v>
       </c>
       <c r="G7" t="str">
         <v>2025-04-08</v>
@@ -780,11 +780,67 @@
       </c>
       <c r="O7" t="str">
         <v>No</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>3122225001091</v>
+      </c>
+      <c r="B8" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D8" t="str">
+        <v>B</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2 months</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2025-04-01</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2025-06-19</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Viola</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Off-campus</v>
+      </c>
+      <c r="K8" t="str">
+        <v>90000</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Research</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Coimbatore</v>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -838,9 +838,65 @@
         <v/>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>1234567890123</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Bob</v>
+      </c>
+      <c r="C9" t="str">
+        <v>1234509876</v>
+      </c>
+      <c r="D9" t="str">
+        <v>A</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F9" t="str">
+        <v>3 months</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2025-01-11</v>
+      </c>
+      <c r="H9" t="str">
+        <v>2025-04-23</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Boom Company</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Campus</v>
+      </c>
+      <c r="K9" t="str">
+        <v>123000</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Industry</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="N9" t="str">
+        <v>No</v>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R9"/>
   </ignoredErrors>
 </worksheet>
 </file>